--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.97235838762259</v>
+        <v>7.135072333333333</v>
       </c>
       <c r="H2">
-        <v>6.97235838762259</v>
+        <v>21.405217</v>
       </c>
       <c r="I2">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="J2">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.118107231104</v>
+        <v>11.76385566666667</v>
       </c>
       <c r="N2">
-        <v>11.118107231104</v>
+        <v>35.291567</v>
       </c>
       <c r="O2">
-        <v>0.3641214534218796</v>
+        <v>0.3637526920523782</v>
       </c>
       <c r="P2">
-        <v>0.3641214534218796</v>
+        <v>0.3637526920523783</v>
       </c>
       <c r="Q2">
-        <v>77.51942820727534</v>
+        <v>83.93596110055989</v>
       </c>
       <c r="R2">
-        <v>77.51942820727534</v>
+        <v>755.423649905039</v>
       </c>
       <c r="S2">
-        <v>0.09035125107409062</v>
+        <v>0.08858043345446778</v>
       </c>
       <c r="T2">
-        <v>0.09035125107409062</v>
+        <v>0.0885804334544678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.97235838762259</v>
+        <v>7.135072333333333</v>
       </c>
       <c r="H3">
-        <v>6.97235838762259</v>
+        <v>21.405217</v>
       </c>
       <c r="I3">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="J3">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.55985429970014</v>
+        <v>9.732885999999999</v>
       </c>
       <c r="N3">
-        <v>9.55985429970014</v>
+        <v>29.198658</v>
       </c>
       <c r="O3">
-        <v>0.3130881875621711</v>
+        <v>0.3009526454809079</v>
       </c>
       <c r="P3">
-        <v>0.3130881875621711</v>
+        <v>0.3009526454809079</v>
       </c>
       <c r="Q3">
-        <v>66.65473031096415</v>
+        <v>69.44484562208733</v>
       </c>
       <c r="R3">
-        <v>66.65473031096415</v>
+        <v>625.0036105987859</v>
       </c>
       <c r="S3">
-        <v>0.07768811526187847</v>
+        <v>0.07328747351821366</v>
       </c>
       <c r="T3">
-        <v>0.07768811526187847</v>
+        <v>0.07328747351821367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.97235838762259</v>
+        <v>7.135072333333333</v>
       </c>
       <c r="H4">
-        <v>6.97235838762259</v>
+        <v>21.405217</v>
       </c>
       <c r="I4">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="J4">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.95832750882112</v>
+        <v>5.575296333333333</v>
       </c>
       <c r="N4">
-        <v>4.95832750882112</v>
+        <v>16.725889</v>
       </c>
       <c r="O4">
-        <v>0.1623867607611083</v>
+        <v>0.1723949279644982</v>
       </c>
       <c r="P4">
-        <v>0.1623867607611083</v>
+        <v>0.1723949279644982</v>
       </c>
       <c r="Q4">
-        <v>34.57123639470876</v>
+        <v>39.78014261810144</v>
       </c>
       <c r="R4">
-        <v>34.57123639470876</v>
+        <v>358.021283562913</v>
       </c>
       <c r="S4">
-        <v>0.0402938273885116</v>
+        <v>0.04198131801660478</v>
       </c>
       <c r="T4">
-        <v>0.0402938273885116</v>
+        <v>0.04198131801660478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.97235838762259</v>
+        <v>7.135072333333333</v>
       </c>
       <c r="H5">
-        <v>6.97235838762259</v>
+        <v>21.405217</v>
       </c>
       <c r="I5">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="J5">
-        <v>0.2481349292248582</v>
+        <v>0.2435182897332695</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.89777350082687</v>
+        <v>5.268219333333334</v>
       </c>
       <c r="N5">
-        <v>4.89777350082687</v>
+        <v>15.804658</v>
       </c>
       <c r="O5">
-        <v>0.1604035982548409</v>
+        <v>0.1628997345022157</v>
       </c>
       <c r="P5">
-        <v>0.1604035982548409</v>
+        <v>0.1628997345022157</v>
       </c>
       <c r="Q5">
-        <v>34.14903214916588</v>
+        <v>37.58912601119845</v>
       </c>
       <c r="R5">
-        <v>34.14903214916588</v>
+        <v>338.302134100786</v>
       </c>
       <c r="S5">
-        <v>0.03980173550037754</v>
+        <v>0.03966906474398323</v>
       </c>
       <c r="T5">
-        <v>0.03980173550037754</v>
+        <v>0.03966906474398324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.196303519132</v>
+        <v>11.272738</v>
       </c>
       <c r="H6">
-        <v>11.196303519132</v>
+        <v>33.818214</v>
       </c>
       <c r="I6">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="J6">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.118107231104</v>
+        <v>11.76385566666667</v>
       </c>
       <c r="N6">
-        <v>11.118107231104</v>
+        <v>35.291567</v>
       </c>
       <c r="O6">
-        <v>0.3641214534218796</v>
+        <v>0.3637526920523782</v>
       </c>
       <c r="P6">
-        <v>0.3641214534218796</v>
+        <v>0.3637526920523783</v>
       </c>
       <c r="Q6">
-        <v>124.4817031176967</v>
+        <v>132.6108628001487</v>
       </c>
       <c r="R6">
-        <v>124.4817031176967</v>
+        <v>1193.497765201338</v>
       </c>
       <c r="S6">
-        <v>0.1450872106853577</v>
+        <v>0.1399486889002784</v>
       </c>
       <c r="T6">
-        <v>0.1450872106853577</v>
+        <v>0.1399486889002784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.196303519132</v>
+        <v>11.272738</v>
       </c>
       <c r="H7">
-        <v>11.196303519132</v>
+        <v>33.818214</v>
       </c>
       <c r="I7">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="J7">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.55985429970014</v>
+        <v>9.732885999999999</v>
       </c>
       <c r="N7">
-        <v>9.55985429970014</v>
+        <v>29.198658</v>
       </c>
       <c r="O7">
-        <v>0.3130881875621711</v>
+        <v>0.3009526454809079</v>
       </c>
       <c r="P7">
-        <v>0.3130881875621711</v>
+        <v>0.3009526454809079</v>
       </c>
       <c r="Q7">
-        <v>107.0350303381219</v>
+        <v>109.716273861868</v>
       </c>
       <c r="R7">
-        <v>107.0350303381219</v>
+        <v>987.4464647568119</v>
       </c>
       <c r="S7">
-        <v>0.1247525829775785</v>
+        <v>0.1157872617202751</v>
       </c>
       <c r="T7">
-        <v>0.1247525829775785</v>
+        <v>0.1157872617202751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.196303519132</v>
+        <v>11.272738</v>
       </c>
       <c r="H8">
-        <v>11.196303519132</v>
+        <v>33.818214</v>
       </c>
       <c r="I8">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="J8">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.95832750882112</v>
+        <v>5.575296333333333</v>
       </c>
       <c r="N8">
-        <v>4.95832750882112</v>
+        <v>16.725889</v>
       </c>
       <c r="O8">
-        <v>0.1623867607611083</v>
+        <v>0.1723949279644982</v>
       </c>
       <c r="P8">
-        <v>0.1623867607611083</v>
+        <v>0.1723949279644982</v>
       </c>
       <c r="Q8">
-        <v>55.51493973602291</v>
+        <v>62.84885483802732</v>
       </c>
       <c r="R8">
-        <v>55.51493973602291</v>
+        <v>565.6396935422459</v>
       </c>
       <c r="S8">
-        <v>0.06470435056668374</v>
+        <v>0.06632650333269668</v>
       </c>
       <c r="T8">
-        <v>0.06470435056668374</v>
+        <v>0.06632650333269668</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.196303519132</v>
+        <v>11.272738</v>
       </c>
       <c r="H9">
-        <v>11.196303519132</v>
+        <v>33.818214</v>
       </c>
       <c r="I9">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="J9">
-        <v>0.3984582872606967</v>
+        <v>0.3847358162785133</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.89777350082687</v>
+        <v>5.268219333333334</v>
       </c>
       <c r="N9">
-        <v>4.89777350082687</v>
+        <v>15.804658</v>
       </c>
       <c r="O9">
-        <v>0.1604035982548409</v>
+        <v>0.1628997345022157</v>
       </c>
       <c r="P9">
-        <v>0.1604035982548409</v>
+        <v>0.1628997345022157</v>
       </c>
       <c r="Q9">
-        <v>54.83695868321934</v>
+        <v>59.38725627120133</v>
       </c>
       <c r="R9">
-        <v>54.83695868321934</v>
+        <v>534.485306440812</v>
       </c>
       <c r="S9">
-        <v>0.06391414303107677</v>
+        <v>0.06267336232526304</v>
       </c>
       <c r="T9">
-        <v>0.06391414303107677</v>
+        <v>0.06267336232526305</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.72633715754716</v>
+        <v>6.311962000000001</v>
       </c>
       <c r="H10">
-        <v>5.72633715754716</v>
+        <v>18.935886</v>
       </c>
       <c r="I10">
-        <v>0.203791054089825</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="J10">
-        <v>0.203791054089825</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.118107231104</v>
+        <v>11.76385566666667</v>
       </c>
       <c r="N10">
-        <v>11.118107231104</v>
+        <v>35.291567</v>
       </c>
       <c r="O10">
-        <v>0.3641214534218796</v>
+        <v>0.3637526920523782</v>
       </c>
       <c r="P10">
-        <v>0.3641214534218796</v>
+        <v>0.3637526920523783</v>
       </c>
       <c r="Q10">
-        <v>63.66603055906461</v>
+        <v>74.25300994148468</v>
       </c>
       <c r="R10">
-        <v>63.66603055906461</v>
+        <v>668.2770894733621</v>
       </c>
       <c r="S10">
-        <v>0.07420469480956397</v>
+        <v>0.07836169050397333</v>
       </c>
       <c r="T10">
-        <v>0.07420469480956397</v>
+        <v>0.07836169050397333</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.72633715754716</v>
+        <v>6.311962000000001</v>
       </c>
       <c r="H11">
-        <v>5.72633715754716</v>
+        <v>18.935886</v>
       </c>
       <c r="I11">
-        <v>0.203791054089825</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="J11">
-        <v>0.203791054089825</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.55985429970014</v>
+        <v>9.732885999999999</v>
       </c>
       <c r="N11">
-        <v>9.55985429970014</v>
+        <v>29.198658</v>
       </c>
       <c r="O11">
-        <v>0.3130881875621711</v>
+        <v>0.3009526454809079</v>
       </c>
       <c r="P11">
-        <v>0.3130881875621711</v>
+        <v>0.3009526454809079</v>
       </c>
       <c r="Q11">
-        <v>54.7429488971099</v>
+        <v>61.433606582332</v>
       </c>
       <c r="R11">
-        <v>54.7429488971099</v>
+        <v>552.902459240988</v>
       </c>
       <c r="S11">
-        <v>0.0638045717663677</v>
+        <v>0.06483294440644601</v>
       </c>
       <c r="T11">
-        <v>0.0638045717663677</v>
+        <v>0.06483294440644602</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.72633715754716</v>
+        <v>6.311962000000001</v>
       </c>
       <c r="H12">
-        <v>5.72633715754716</v>
+        <v>18.935886</v>
       </c>
       <c r="I12">
-        <v>0.203791054089825</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="J12">
-        <v>0.203791054089825</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95832750882112</v>
+        <v>5.575296333333333</v>
       </c>
       <c r="N12">
-        <v>4.95832750882112</v>
+        <v>16.725889</v>
       </c>
       <c r="O12">
-        <v>0.1623867607611083</v>
+        <v>0.1723949279644982</v>
       </c>
       <c r="P12">
-        <v>0.1623867607611083</v>
+        <v>0.1723949279644982</v>
       </c>
       <c r="Q12">
-        <v>28.39305505305062</v>
+        <v>35.19105859473934</v>
       </c>
       <c r="R12">
-        <v>28.39305505305062</v>
+        <v>316.719527352654</v>
       </c>
       <c r="S12">
-        <v>0.0330929691457385</v>
+        <v>0.0371383038112706</v>
       </c>
       <c r="T12">
-        <v>0.0330929691457385</v>
+        <v>0.0371383038112706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.72633715754716</v>
+        <v>6.311962000000001</v>
       </c>
       <c r="H13">
-        <v>5.72633715754716</v>
+        <v>18.935886</v>
       </c>
       <c r="I13">
-        <v>0.203791054089825</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="J13">
-        <v>0.203791054089825</v>
+        <v>0.2154257335164676</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.89777350082687</v>
+        <v>5.268219333333334</v>
       </c>
       <c r="N13">
-        <v>4.89777350082687</v>
+        <v>15.804658</v>
       </c>
       <c r="O13">
-        <v>0.1604035982548409</v>
+        <v>0.1628997345022157</v>
       </c>
       <c r="P13">
-        <v>0.1604035982548409</v>
+        <v>0.1628997345022157</v>
       </c>
       <c r="Q13">
-        <v>28.04630238703474</v>
+        <v>33.25280023966534</v>
       </c>
       <c r="R13">
-        <v>28.04630238703474</v>
+        <v>299.2752021569881</v>
       </c>
       <c r="S13">
-        <v>0.03268881836815484</v>
+        <v>0.03509279479477764</v>
       </c>
       <c r="T13">
-        <v>0.03268881836815484</v>
+        <v>0.03509279479477764</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.20406143235362</v>
+        <v>4.580172</v>
       </c>
       <c r="H14">
-        <v>4.20406143235362</v>
+        <v>13.740516</v>
       </c>
       <c r="I14">
-        <v>0.1496157294246201</v>
+        <v>0.1563201604717497</v>
       </c>
       <c r="J14">
-        <v>0.1496157294246201</v>
+        <v>0.1563201604717497</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.118107231104</v>
+        <v>11.76385566666667</v>
       </c>
       <c r="N14">
-        <v>11.118107231104</v>
+        <v>35.291567</v>
       </c>
       <c r="O14">
-        <v>0.3641214534218796</v>
+        <v>0.3637526920523782</v>
       </c>
       <c r="P14">
-        <v>0.3641214534218796</v>
+        <v>0.3637526920523783</v>
       </c>
       <c r="Q14">
-        <v>46.74120581105622</v>
+        <v>53.880482336508</v>
       </c>
       <c r="R14">
-        <v>46.74120581105622</v>
+        <v>484.924341028572</v>
       </c>
       <c r="S14">
-        <v>0.05447829685286734</v>
+        <v>0.05686187919365872</v>
       </c>
       <c r="T14">
-        <v>0.05447829685286734</v>
+        <v>0.05686187919365871</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.20406143235362</v>
+        <v>4.580172</v>
       </c>
       <c r="H15">
-        <v>4.20406143235362</v>
+        <v>13.740516</v>
       </c>
       <c r="I15">
-        <v>0.1496157294246201</v>
+        <v>0.1563201604717497</v>
       </c>
       <c r="J15">
-        <v>0.1496157294246201</v>
+        <v>0.1563201604717497</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.55985429970014</v>
+        <v>9.732885999999999</v>
       </c>
       <c r="N15">
-        <v>9.55985429970014</v>
+        <v>29.198658</v>
       </c>
       <c r="O15">
-        <v>0.3130881875621711</v>
+        <v>0.3009526454809079</v>
       </c>
       <c r="P15">
-        <v>0.3130881875621711</v>
+        <v>0.3009526454809079</v>
       </c>
       <c r="Q15">
-        <v>40.19021476028928</v>
+        <v>44.578291936392</v>
       </c>
       <c r="R15">
-        <v>40.19021476028928</v>
+        <v>401.204627427528</v>
       </c>
       <c r="S15">
-        <v>0.04684291755634649</v>
+        <v>0.04704496583597312</v>
       </c>
       <c r="T15">
-        <v>0.04684291755634649</v>
+        <v>0.04704496583597312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.20406143235362</v>
+        <v>4.580172</v>
       </c>
       <c r="H16">
-        <v>4.20406143235362</v>
+        <v>13.740516</v>
       </c>
       <c r="I16">
-        <v>0.1496157294246201</v>
+        <v>0.1563201604717497</v>
       </c>
       <c r="J16">
-        <v>0.1496157294246201</v>
+        <v>0.1563201604717497</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.95832750882112</v>
+        <v>5.575296333333333</v>
       </c>
       <c r="N16">
-        <v>4.95832750882112</v>
+        <v>16.725889</v>
       </c>
       <c r="O16">
-        <v>0.1623867607611083</v>
+        <v>0.1723949279644982</v>
       </c>
       <c r="P16">
-        <v>0.1623867607611083</v>
+        <v>0.1723949279644982</v>
       </c>
       <c r="Q16">
-        <v>20.84511344881287</v>
+        <v>25.535816157636</v>
       </c>
       <c r="R16">
-        <v>20.84511344881287</v>
+        <v>229.822345418724</v>
       </c>
       <c r="S16">
-        <v>0.0242956136601745</v>
+        <v>0.02694880280392608</v>
       </c>
       <c r="T16">
-        <v>0.0242956136601745</v>
+        <v>0.02694880280392608</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.20406143235362</v>
+        <v>4.580172</v>
       </c>
       <c r="H17">
-        <v>4.20406143235362</v>
+        <v>13.740516</v>
       </c>
       <c r="I17">
-        <v>0.1496157294246201</v>
+        <v>0.1563201604717497</v>
       </c>
       <c r="J17">
-        <v>0.1496157294246201</v>
+        <v>0.1563201604717497</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.89777350082687</v>
+        <v>5.268219333333334</v>
       </c>
       <c r="N17">
-        <v>4.89777350082687</v>
+        <v>15.804658</v>
       </c>
       <c r="O17">
-        <v>0.1604035982548409</v>
+        <v>0.1628997345022157</v>
       </c>
       <c r="P17">
-        <v>0.1604035982548409</v>
+        <v>0.1628997345022157</v>
       </c>
       <c r="Q17">
-        <v>20.59054067922981</v>
+        <v>24.129350680392</v>
       </c>
       <c r="R17">
-        <v>20.59054067922981</v>
+        <v>217.164156123528</v>
       </c>
       <c r="S17">
-        <v>0.02399890135523173</v>
+        <v>0.02546451263819178</v>
       </c>
       <c r="T17">
-        <v>0.02399890135523173</v>
+        <v>0.02546451263819178</v>
       </c>
     </row>
   </sheetData>
